--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43027,6 +43027,41 @@
         <v>204000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>95000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43062,6 +43062,41 @@
         <v>95000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>201000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43097,6 +43097,41 @@
         <v>201000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>31200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43132,6 +43132,41 @@
         <v>31200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>97800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43167,6 +43167,41 @@
         <v>97800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>234100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43202,6 +43202,41 @@
         <v>234100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>40200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,41 @@
         <v>40200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43272,6 +43272,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>180900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,41 @@
         <v>180900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>173500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43342,6 +43342,41 @@
         <v>173500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>80400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43377,6 +43377,41 @@
         <v>80400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>85200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,41 @@
         <v>85200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>41700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,76 @@
         <v>41700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>149500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,76 @@
         <v>149500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43622,6 +43622,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>111700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43727,6 +43727,76 @@
         <v>111700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>184700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,41 @@
         <v>13200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43832,6 +43832,41 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>225400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81282,6 +81282,41 @@
         <v>225400</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>1206600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81317,6 +81317,41 @@
         <v>1206600</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>1022100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81352,6 +81352,41 @@
         <v>1022100</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>143800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2313"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81387,6 +81387,41 @@
         <v>143800</v>
       </c>
     </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>333500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81422,6 +81422,41 @@
         <v>333500</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>227100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81457,6 +81457,41 @@
         <v>227100</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>198300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2316"/>
+  <dimension ref="A1:I2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81492,6 +81492,41 @@
         <v>198300</v>
       </c>
     </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2317"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81527,6 +81527,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>368000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2318"/>
+  <dimension ref="A1:I2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81562,6 +81562,41 @@
         <v>368000</v>
       </c>
     </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>265300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81597,6 +81597,41 @@
         <v>265300</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>479700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81632,6 +81632,41 @@
         <v>479700</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>1499400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2321"/>
+  <dimension ref="A1:I2322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81667,6 +81667,41 @@
         <v>1499400</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>1023000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2322"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81702,6 +81702,41 @@
         <v>1023000</v>
       </c>
     </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>965000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2323"/>
+  <dimension ref="A1:I2324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81737,6 +81737,41 @@
         <v>965000</v>
       </c>
     </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>758000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81772,6 +81772,41 @@
         <v>758000</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>2018300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91047,6 +91047,41 @@
         <v>2018300</v>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2590" t="n">
+        <v>4571600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91082,6 +91082,41 @@
         <v>4571600</v>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>2472900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91117,6 +91117,41 @@
         <v>2472900</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>1155700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91152,6 +91152,41 @@
         <v>1155700</v>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2593" t="n">
+        <v>738500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91187,6 +91187,41 @@
         <v>738500</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2594" t="n">
+        <v>190800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91222,6 +91222,41 @@
         <v>190800</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>185900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91257,6 +91257,41 @@
         <v>185900</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>179800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91292,6 +91292,41 @@
         <v>179800</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2597" t="n">
+        <v>329400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91327,6 +91327,41 @@
         <v>329400</v>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2598" t="n">
+        <v>351000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2598"/>
+  <dimension ref="A1:I2599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91362,6 +91362,41 @@
         <v>351000</v>
       </c>
     </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2599" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2599" t="n">
+        <v>158000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2599"/>
+  <dimension ref="A1:I2601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91397,6 +91397,76 @@
         <v>158000</v>
       </c>
     </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2600" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2600" t="n">
+        <v>1049000</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2601" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2601" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2601"/>
+  <dimension ref="A1:I2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91467,6 +91467,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2602" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2602" t="n">
+        <v>91400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2602"/>
+  <dimension ref="A1:I2605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91502,6 +91502,111 @@
         <v>91400</v>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2603" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2603" t="n">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2605" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2605" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2605"/>
+  <dimension ref="A1:I2606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91607,6 +91607,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2606" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2606" t="n">
+        <v>68700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2606"/>
+  <dimension ref="A1:I2607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91642,6 +91642,41 @@
         <v>68700</v>
       </c>
     </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2607" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2607" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2607" t="n">
+        <v>32800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7246.xlsx
+++ b/data/7246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2607"/>
+  <dimension ref="A1:I2610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91677,6 +91677,111 @@
         <v>32800</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2608" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2608" t="n">
+        <v>54300</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2609" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2609" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2609" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2609" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>SIGN</t>
+        </is>
+      </c>
+      <c r="E2610" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2610" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2610" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2610" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2610" t="n">
+        <v>64200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
